--- a/src/analysis_examples/circadb/results_jtk/cosinor_10556962_vwa3a_.xlsx
+++ b/src/analysis_examples/circadb/results_jtk/cosinor_10556962_vwa3a_.xlsx
@@ -589,35 +589,35 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.2119199395968599, 0.3282937913679231]</t>
+          <t>[0.21237193880957733, 0.32784179215520565]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>3.578426666095424e-09</v>
+        <v>3.126151559840196e-09</v>
       </c>
       <c r="N2" t="n">
-        <v>3.578426666095424e-09</v>
+        <v>3.126151559840196e-09</v>
       </c>
       <c r="O2" t="n">
         <v>-1.157263359880925</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-1.38368445203154, -0.9308422677303092]</t>
+          <t>[-1.396263401595463, -0.9182633181663862]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>6.586671208452799e-10</v>
+        <v>1.715275255165238e-09</v>
       </c>
       <c r="R2" t="n">
-        <v>6.586671208452799e-10</v>
+        <v>1.715275255165238e-09</v>
       </c>
       <c r="S2" t="n">
         <v>0.5643560324959389</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.5326904483816091, 0.5960216166102688]</t>
+          <t>[0.5326884849629607, 0.5960235800289171]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -630,10 +630,10 @@
         <v>4.481201201201326</v>
       </c>
       <c r="X2" t="n">
-        <v>3.604444444444546</v>
+        <v>3.555735735735837</v>
       </c>
       <c r="Y2" t="n">
-        <v>5.357957957958106</v>
+        <v>5.406666666666816</v>
       </c>
     </row>
   </sheetData>
